--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryParas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1632501A-351A-4285-99FA-A43819AA6C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9AD9F1-CB43-48C1-A3EF-C490534E359F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -229,10 +233,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>統計期間天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Decimal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -298,6 +298,35 @@
   </si>
   <si>
     <t>L8201維護：統計期間天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>樣態二統計期間天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樣態一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>統計期間天數</t>
+    </r>
+  </si>
+  <si>
+    <t>FactorDays2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -305,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -398,6 +427,12 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -471,7 +506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -487,9 +522,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,13 +531,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -514,9 +546,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -529,16 +558,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -552,6 +578,12 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -892,499 +924,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.6640625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.6640625" style="18" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>2</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="B10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>16</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <f t="shared" ref="A11:A21" si="0">A10+1</f>
+        <v>3</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="16">
+        <v>4</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
-        <f t="shared" ref="A11:A15" si="0">A10+1</f>
-        <v>3</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="18">
-        <v>4</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>16</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <v>2</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>54</v>
+      <c r="G12" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+      <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>16</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <v>2</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>55</v>
+      <c r="G13" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="18">
+      <c r="B14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="16">
         <v>16</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="16">
         <v>2</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>52</v>
+      <c r="G14" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
+      <c r="A15" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="23">
+      <c r="B15" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="24">
         <v>3</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24" t="s">
-        <v>56</v>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
+      <c r="A16" s="24">
         <f>A15+1</f>
         <v>8</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="D16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="24">
         <v>3</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24" t="s">
+      <c r="F16" s="24"/>
+      <c r="G16" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
-        <f>A16+1</f>
-        <v>9</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="D17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="20">
+        <v>3</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E18" s="16">
         <v>8</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
-        <f>A17+1</f>
-        <v>10</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E19" s="16">
         <v>6</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
-        <f>A18+1</f>
-        <v>11</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E20" s="16">
         <v>8</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G20" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>12</v>
-      </c>
-      <c r="B20" s="18" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E21" s="16">
         <v>6</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G21" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="20"/>
-    </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="20"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="20"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="20"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="20"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="20"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="20"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="20"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="20"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="20"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="20"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryParas.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryParas.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9AD9F1-CB43-48C1-A3EF-C490534E359F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015BF883-EBBE-44F3-A28C-58B0ACC49136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -165,9 +152,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>DATE</t>
   </si>
   <si>
     <t>LastUpdate</t>
@@ -328,6 +312,9 @@
   <si>
     <t>FactorDays2</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -573,17 +560,17 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -604,9 +591,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -644,9 +631,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -679,26 +666,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -731,26 +701,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -927,7 +880,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -942,23 +895,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
@@ -970,12 +923,12 @@
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="9"/>
@@ -983,10 +936,10 @@
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="14"/>
       <c r="D4" s="13"/>
       <c r="E4" s="9"/>
@@ -994,10 +947,10 @@
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="8"/>
       <c r="D5" s="13"/>
       <c r="E5" s="9"/>
@@ -1005,10 +958,10 @@
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="14"/>
       <c r="D6" s="13"/>
       <c r="E6" s="9"/>
@@ -1016,10 +969,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="14"/>
       <c r="D7" s="13"/>
       <c r="E7" s="9"/>
@@ -1054,20 +1007,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="16">
         <v>2</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1076,13 +1029,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="16">
         <v>16</v>
@@ -1091,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1100,20 +1053,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="16">
         <v>4</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1122,13 +1075,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="16">
         <v>16</v>
@@ -1137,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1146,13 +1099,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="16">
         <v>16</v>
@@ -1161,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1170,13 +1123,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="16">
         <v>16</v>
@@ -1185,51 +1138,51 @@
         <v>2</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
+      <c r="A15" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="24">
+      <c r="B15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="22">
         <v>3</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25" t="s">
-        <v>55</v>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
+      <c r="A16" s="22">
         <f>A15+1</f>
         <v>8</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="24">
+      <c r="D16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="22">
         <v>3</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25" t="s">
-        <v>55</v>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1238,52 +1191,50 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="20">
         <v>3</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
+      <c r="A18" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="D18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="16">
-        <v>8</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
+      <c r="A19" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>18</v>
@@ -1295,22 +1246,20 @@
       <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
+      <c r="A20" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="D20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="16">
-        <v>8</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E20" s="16"/>
       <c r="F20" s="16" t="s">
         <v>19</v>
       </c>
@@ -1319,15 +1268,15 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="24">
+      <c r="A21" s="22">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>18</v>
